--- a/rhla_analysis/rhla1_3_zipf_result/k1.xlsx
+++ b/rhla_analysis/rhla1_3_zipf_result/k1.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1401941026694308</v>
+        <v>0.1401941026694321</v>
       </c>
       <c r="B2" t="n">
         <v>2.234550477455717</v>
@@ -466,12 +466,12 @@
         <v>0.0319693094629156</v>
       </c>
       <c r="D2" t="n">
-        <v>15.93897628293718</v>
+        <v>15.93897628293703</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.120061435803765</v>
+        <v>0.1200614358037651</v>
       </c>
       <c r="B3" t="n">
         <v>1.537959079743752</v>
@@ -480,12 +480,12 @@
         <v>0.02301790281329923</v>
       </c>
       <c r="D3" t="n">
-        <v>12.80976751150534</v>
+        <v>12.80976751150532</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.08565614983468123</v>
+        <v>0.08565614983468135</v>
       </c>
       <c r="B4" t="n">
         <v>1.096351157615817</v>
@@ -494,12 +494,12 @@
         <v>0.01193520886615516</v>
       </c>
       <c r="D4" t="n">
-        <v>12.79944475360853</v>
+        <v>12.79944475360852</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.3720226783893396</v>
+        <v>0.3720226783893362</v>
       </c>
       <c r="B5" t="n">
         <v>5.771081656685062</v>
@@ -508,12 +508,12 @@
         <v>0.04006820119352088</v>
       </c>
       <c r="D5" t="n">
-        <v>15.51271465941479</v>
+        <v>15.51271465941493</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.03880652978323813</v>
+        <v>0.03880652978323786</v>
       </c>
       <c r="B6" t="n">
         <v>0.9979044484422539</v>
@@ -522,26 +522,26 @@
         <v>0.0196078431372549</v>
       </c>
       <c r="D6" t="n">
-        <v>25.71485917489286</v>
+        <v>25.71485917489304</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.04303858914036647</v>
+        <v>0.04303858914036643</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8414150220446482</v>
+        <v>0.8414150220446481</v>
       </c>
       <c r="C7" t="n">
         <v>0.03623188405797102</v>
       </c>
       <c r="D7" t="n">
-        <v>19.55024639168466</v>
+        <v>19.55024639168468</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0744469869079921</v>
+        <v>0.07444698690799179</v>
       </c>
       <c r="B8" t="n">
         <v>1.368418092104858</v>
@@ -550,12 +550,12 @@
         <v>0.04560954816709292</v>
       </c>
       <c r="D8" t="n">
-        <v>18.38110780488759</v>
+        <v>18.38110780488767</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.2382125772829466</v>
+        <v>0.2382125772829456</v>
       </c>
       <c r="B9" t="n">
         <v>1.427668074748857</v>
@@ -564,12 +564,12 @@
         <v>0.04518329070758739</v>
       </c>
       <c r="D9" t="n">
-        <v>5.993252291851435</v>
+        <v>5.993252291851462</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.06934973699933086</v>
+        <v>0.06934973699933063</v>
       </c>
       <c r="B10" t="n">
         <v>0.9672126297509887</v>
@@ -578,21 +578,21 @@
         <v>0.01406649616368286</v>
       </c>
       <c r="D10" t="n">
-        <v>13.94688244831153</v>
+        <v>13.94688244831158</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.04759133973425082</v>
+        <v>0.04759133973425102</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8469597693651155</v>
+        <v>0.8469597693651154</v>
       </c>
       <c r="C11" t="n">
         <v>0.02813299232736573</v>
       </c>
       <c r="D11" t="n">
-        <v>17.79651033348764</v>
+        <v>17.79651033348756</v>
       </c>
     </row>
   </sheetData>
